--- a/dcast_performance/Measurements.xlsx
+++ b/dcast_performance/Measurements.xlsx
@@ -357,11 +357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44230912"/>
-        <c:axId val="44232704"/>
+        <c:axId val="201840896"/>
+        <c:axId val="201842688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44230912"/>
+        <c:axId val="201840896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44232704"/>
+        <c:crossAx val="201842688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44232704"/>
+        <c:axId val="201842688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44230912"/>
+        <c:crossAx val="201840896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,11 +634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41666048"/>
-        <c:axId val="42131456"/>
+        <c:axId val="205746560"/>
+        <c:axId val="205748096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41666048"/>
+        <c:axId val="205746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42131456"/>
+        <c:crossAx val="205748096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42131456"/>
+        <c:axId val="205748096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41666048"/>
+        <c:crossAx val="205746560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -873,11 +873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42747008"/>
-        <c:axId val="42749952"/>
+        <c:axId val="205760768"/>
+        <c:axId val="206131200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42747008"/>
+        <c:axId val="205760768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42749952"/>
+        <c:crossAx val="206131200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42749952"/>
+        <c:axId val="206131200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42747008"/>
+        <c:crossAx val="205760768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L34"/>
+  <dimension ref="C2:P34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1329,7 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1364,8 +1364,12 @@
         <v>5</v>
       </c>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>22.88</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>13</v>
       </c>
